--- a/src/function/1! образец REACT.xlsx
+++ b/src/function/1! образец REACT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22EC934-CD7E-4341-9D31-FB40C46FE007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFD1F6B-0867-4D15-A379-A98FC32916CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>тип улицы:</t>
   </si>
   <si>
-    <t>адрес дома:</t>
-  </si>
-  <si>
     <t>", "streetName":"</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>", "buildingNumber":"</t>
+  </si>
+  <si>
+    <t>номер дома:</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:AS210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="O3" sqref="O3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="O3" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -752,13 +752,13 @@
         <v>18</v>
       </c>
       <c r="AP7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AQ7" s="6" t="s">
+      <c r="AR7" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="AR7" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
